--- a/数据.xlsx
+++ b/数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="292">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -988,12 +988,325 @@
     <t>增加24点攻击力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>骷髅王</t>
+  </si>
+  <si>
+    <t xml:space="preserve">他曾经是一个保家卫国的高贵骑士，然而却不幸被投入地狱，经历了数世纪的折磨。现在，Lucifer将这具腐烂的躯体连同他麻木的灵魂一起化为尘埃，作为Leoric王。他以毫不迟疑的目光带领着手下向前挺进，他只知道一件事情----服从黑暗之王本人的命令。他能使用强大的魔法锤使对手瘫痪，他的大剑能让他和他的手下吸取敌人的血液，在战场上他总是令人望而生畏。据说他是不死之身，然而被他的战锤击倒的人却再也没有醒过来。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥火爆击</t>
+  </si>
+  <si>
+    <t>8秒</t>
+  </si>
+  <si>
+    <r>
+      <t>施法距离：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>525</t>
+    </r>
+  </si>
+  <si>
+    <t>等级1:初始伤害50点，2秒眩晕后造成15点每秒的伤害并降低20%速度，持续2秒。 
+等级2:初始伤害100点，2秒眩晕后造成30点每秒的伤害并降低20%速度，持续2秒。 
+等级3:初始伤害150点，2秒眩晕后造成40点每秒的伤害并降低20%速度，持续2秒。 
+等级4:初始伤害200点，2秒眩晕后造成50点每秒的伤害并降低20%速度，持续2秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">骷髅王向一个敌方单位发射地狱火球，造成伤害和眩晕，并带来持续伤害和减速。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血光环</t>
+  </si>
+  <si>
+    <t>附近友方单位通过物理攻击回复一定的生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：附近900范围内的近身友方单位在攻击时能吸取所造成伤害15%的生命。
+等级2：附近900范围内的近身友方单位在攻击时能吸取所造成伤害20%的生命。
+等级3：附近900范围内的近身友方单位在攻击时能吸取所造成伤害25%的生命。
+等级4：附近900范围内的近身友方单位在攻击时能吸取所造成伤害30%的生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">影响范围：900 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命一击</t>
+  </si>
+  <si>
+    <r>
+      <t>拥有主动被动两个部分，被动给予致命一击的概率，主动技能取消。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>被动致命一击倍数：1.25/1.75/2.25/2.75 
+被动致命一击概率：15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：有15%概率造成1.25倍伤害的致命一击。 
+等级2：有15%概率造成1.75倍伤害的致命一击。 
+等级3：有15%概率造成2.25倍伤害的致命一击。 
+等级4：有15%概率造成2.75倍伤害的致命一击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅王倒下后，他散落的骨头会重新组成他的身体，使他复活。在他复活区域内的敌人会被减速50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：死后三秒原地重生，恢复所有生命和魔法，降低700范围内敌人30%的速度，持续4秒。 
+等级2：死后三秒原地重生，恢复所有生命和魔法，降低700范围内敌人30%的速度，持续4秒。 
+等级3：死后三秒原地重生，恢复所有生命和魔法，降低700范围内敌人30%的速度，持续4秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">冷却时间：260/160/60秒 
+影响范围：900 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥魂大帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级：+15 攻击力或+8 智力 
+15级：+15 移动速度或+200 生命值 
+20级：+40 攻击速度或+20 力量 
+25级：重生无需消耗魔法或+20% 吸血光环效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,37,38,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luna是月神坚定而又虔诚的信徒。在无尽的战争中，她加入近卫军团竭尽全力净化被邪恶的天灾军团所污染的土地。由于她的忠诚和勇敢，月神赐予了她一小部分神秘的力量。这份恩赐使得她能轻易打败敌人。据说Luna能够召唤最纯净的月光，而且永远被灼炽的光环所围绕，就好像身处在月光的照耀下。Luna是近卫军团最明亮的灯塔和永不懈怠的守卫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">露娜引导一道聚集的月光能量打击敌人，造成眩晕和伤害。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：800 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 造成75点的伤害和0.6秒的晕眩。 
+等级 2 - 造成150点的伤害和0.6秒的晕眩。 
+等级 3 - 造成225点的伤害和0.6秒的伤害。 
+等级 4 - 造成300点的伤害和0.6秒的晕眩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">露娜的月刃如果已经在目标周围的其他目标上弹射过一次，可以弹回初始目标。每次弹射造成的伤害都会减少35%。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 月之骑士的攻击弹射2个目标。 
+等级 2 - 月之骑士的攻击弹射3个目标。 
+等级 3 - 月之骑士的攻击弹射4个目标。 
+等级 4 - 月之骑士的攻击弹射6个目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之祝福</t>
+  </si>
+  <si>
+    <t>为附近的友军提升攻击力，同时提高露娜在夜间的视野。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 增加14的基础远程攻击力。 
+等级2 - 增加20的基础远程攻击力。 
+等级3 - 增加26的基础远程攻击力。 
+等级4 - 增加32的基础远程攻击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月蚀</t>
+  </si>
+  <si>
+    <t>召唤一次跟随露娜的月蚀，以她当前技能等级的月光打击敌人。单一目标只能受到有限次数的打击。与单独施放的月光不同，月蚀不能造成眩晕。月蚀会暂时将白天变为黑夜，持续10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">等级1 - 以月亮之名，召唤5（6）道月光，随机选择周围的目标造成伤害。魔法消耗150，施法间隔160（90）。 
+等级2 - 以月亮之名，召唤8（10）道月光，随机选择周围的目标造成伤害。任何单一目标不会受到多于4（6）道月光的打击。魔法消耗200，施法间隔150（90）。 
+等级3 - 以月亮之名，召唤11（14）道月光，随机选择周围的目标造成伤害。任何单一目标不会受到多于4（6）道月光的打击。 魔法消耗250，施法间隔140（90）。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜天赋树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级：+15 攻击力或+4 护甲 
+15级：+150 生命值或+40 月光伤害 
+20级：+25 攻击速度或+10% 魔法抗性 
+25级：-4秒 月光冷却时间或+15 全属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶室女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过寒冰泉巨魔冰冻魔法师Raishali的长年训练，Rylai善于运用令人叹为观止的禁制魔法，她的绝技是异常强大的范围杀伤技能。Rylai称得上是近卫军团所拥有的最为强大的法师之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,42,43,44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜新星</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破坏性的冰霜爆发，降低目标区域内的敌人的30%移动速度和30%攻击攻速。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：700 
+作用范围：400 
+冷却时间：12秒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：造成100点魔法伤害，减速持续3.5秒。 
+等级2：造成150点魔法伤害，减速持续4秒。 
+等级3：造成200点魔法伤害，减速持续4.5秒。 
+等级4：造成250点魔法伤害，减速持续5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+  </si>
+  <si>
+    <t>施法距离：500 
+伤害：每0.5秒50点 
+冷却时间：10/9/8/7秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：持续1.5秒，魔法消耗115点 
+等级2：持续2秒，魔法消耗125点 
+等级3：持续2.5秒，魔法消耗140点 
+等级4：持续3秒，魔法消耗150点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用冰包围一个敌方单位，禁止移动和攻击，同时每秒造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术光环</t>
+  </si>
+  <si>
+    <t>提升地图上所有友方单位的魔法回复速度。水晶室女享受双倍加成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作用范围：全地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>等级1：每秒回复友方1魔法，自身1点魔法 
+等级2：每秒回复友方1.5点魔法，自身2点魔法 
+等级3：每秒回复友方2魔法，自身3点魔法 
+等级4：每秒回复友方3点魔法，自身6点魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒领域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以水晶室女为中心召唤冰晶轰炸敌人，将其减速并造成大量伤害。持续10秒。可用神杖升级，现在站在极寒领域内超过2.5秒的任意单位都将受到冰封禁制的效果。每个敌人只会受到一次作用。需要持续施法 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用范围：735 
+冰爆范围：400 
+移动速度减缓：30% 
+攻击速度减缓：20%（50%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：每次冰爆造成105点伤害，冷却时间150秒，消耗200点魔法。 
+等级2：每次冰爆造成170点伤害，冷却时间120秒，消耗400点魔法。 
+等级3：每次冰爆造成250点伤害，冷却时间90秒，消耗600点魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰女天赋树</t>
+  </si>
+  <si>
+    <t>10级：+15% 魔法抗性或+50 攻击力 
+15级：+125 施法距离或+200 生命值 
+20级：+120 金钱/分或-35秒 复活时间 
+25级：+1.5秒 冰封禁制持续时间或+200 冰霜新星伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1049,6 +1362,16 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFEB9248"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1071,9 +1394,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1094,6 +1416,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1372,17 +1696,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="130" style="2" customWidth="1"/>
+    <col min="16" max="16" width="130" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1431,7 +1755,7 @@
       <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1481,7 +1805,7 @@
       <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1531,7 +1855,7 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1539,7 +1863,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
@@ -1581,7 +1905,7 @@
       <c r="O4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1631,7 +1955,7 @@
       <c r="O5" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1681,7 +2005,7 @@
       <c r="O6" t="s">
         <v>133</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1731,8 +2055,235 @@
       <c r="O7" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>2.9</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>1.7</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>1.7</v>
+      </c>
+      <c r="K8">
+        <v>3.52</v>
+      </c>
+      <c r="L8">
+        <v>54</v>
+      </c>
+      <c r="M8">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>568</v>
+      </c>
+      <c r="O8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>2.8</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>1.85</v>
+      </c>
+      <c r="K9">
+        <v>3.08</v>
+      </c>
+      <c r="L9">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>54</v>
+      </c>
+      <c r="N9">
+        <v>435</v>
+      </c>
+      <c r="O9" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1.7</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>2.9</v>
+      </c>
+      <c r="K10">
+        <v>1.24</v>
+      </c>
+      <c r="L10">
+        <v>38</v>
+      </c>
+      <c r="M10">
+        <v>44</v>
+      </c>
+      <c r="N10">
+        <v>454</v>
+      </c>
+      <c r="O10" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1743,20 +2294,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showRuler="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="72.1640625" customWidth="1"/>
-    <col min="8" max="8" width="67.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1772,16 +2324,16 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1798,13 +2350,13 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1812,7 +2364,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C3">
@@ -1821,16 +2373,16 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1847,10 +2399,10 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1867,13 +2419,13 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1881,7 +2433,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C7">
@@ -1890,10 +2442,10 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1901,7 +2453,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C8">
@@ -1910,13 +2462,13 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1924,7 +2476,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C9">
@@ -1933,10 +2485,10 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1944,7 +2496,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C10">
@@ -1953,13 +2505,13 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>45</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1967,7 +2519,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C12">
@@ -1976,16 +2528,16 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1993,7 +2545,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C13">
@@ -2002,10 +2554,10 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2013,7 +2565,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C14">
@@ -2022,13 +2574,13 @@
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2036,7 +2588,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C15">
@@ -2045,13 +2597,13 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2059,7 +2611,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C17">
@@ -2068,16 +2620,16 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2085,7 +2637,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C18">
@@ -2094,16 +2646,16 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2111,7 +2663,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C19">
@@ -2120,10 +2672,10 @@
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2131,7 +2683,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C20">
@@ -2140,13 +2692,13 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2154,7 +2706,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C22">
@@ -2163,24 +2715,24 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C23">
@@ -2189,16 +2741,16 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2206,7 +2758,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C24">
@@ -2215,21 +2767,21 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C25">
@@ -2238,13 +2790,13 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2252,7 +2804,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C27">
@@ -2261,10 +2813,10 @@
       <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2272,7 +2824,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C28">
@@ -2281,10 +2833,10 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2292,7 +2844,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C29">
@@ -2301,10 +2853,10 @@
       <c r="D29" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2312,7 +2864,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C30">
@@ -2321,14 +2873,340 @@
       <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2339,17 +3217,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="50.1640625" customWidth="1"/>
-    <col min="5" max="5" width="49" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,7 +3243,7 @@
       <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2379,10 +3257,10 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2390,13 +3268,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2404,13 +3282,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2424,7 +3302,7 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2438,7 +3316,7 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2452,8 +3330,98 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2466,39 +3434,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2506,16 +3474,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2523,19 +3491,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2543,22 +3511,22 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D4">
         <v>465</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2566,16 +3534,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D5">
         <v>165</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2583,19 +3551,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2603,16 +3571,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D7">
         <v>150</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2620,16 +3588,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D8">
         <v>150</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2637,16 +3605,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D9">
         <v>450</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2654,16 +3622,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D10">
         <v>450</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2671,16 +3639,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D11">
         <v>450</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2688,16 +3656,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2705,16 +3673,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2722,16 +3690,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2739,16 +3707,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D15">
         <v>2100</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2756,19 +3724,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D16">
         <v>175</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2776,19 +3744,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D17">
         <v>200</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2796,19 +3764,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D18">
         <v>200</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2816,19 +3784,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D19">
         <v>420</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2836,19 +3804,19 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D20">
         <v>550</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2856,19 +3824,19 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D21">
         <v>900</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2876,19 +3844,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D22">
         <v>1200</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2896,19 +3864,19 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D23">
         <v>900</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2916,19 +3884,19 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D24">
         <v>1400</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2936,19 +3904,19 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D25">
         <v>1500</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2956,19 +3924,19 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D26">
         <v>1400</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2976,19 +3944,19 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D27">
         <v>1600</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>228</v>
       </c>
     </row>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="535">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,6 +1299,1223 @@
   </si>
   <si>
     <t>月之骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽尸王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">每个遇到尸王Dirge的人，都认为他是个格外丑陋和恶心的标本，包括他的僵尸随从们。他曾在荒野上游荡，最终选择侍奉巫妖王，是因为他憧憬着有个能够承认和接纳他的地方，哪怕是天灾军团也好。虽然他仍然被天灾军团的其他人所厌恶，但他那可怕的能力，包括：召唤具有自我复制能力的小型食尸鬼，以及在敌军中快速散播邪恶的瘟疫，其威力的强大都是令人无可非议的，并且随时可能会成为天灾军团的一把利器，来使它们的邪恶远征达到一击必杀的效果。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔法消耗：70/90/110/130点 
+冷却时间：10/8/6/4秒 
+施法距离：625 
+作用范围：325 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽尸王使范围内敌方英雄的生命力衰竭，造成伤害并在一段时间内偷取他们的力量值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：对敌方英雄造成20点伤害并偷取4点力量，持续40秒。 
+等级2：对敌方英雄造成60点伤害并偷取4点力量，持续40秒。 
+等级3：对敌方英雄造成100点伤害并偷取4点力量，持续40秒。 
+等级4：对敌方英雄造成140点伤害并偷取4点力量，持续40秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">将能量的流动导向目标友方或敌方单位，治疗或伤害目标，数值取决于其附近的单位数量。每个计算的有效单位都会受到伤害。 
+造成25点生命移除效果。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">魔法消耗：50/75/100/125点 
+冷却时间：25/20/15/10秒 
+作用范围：975 
+施法距离：750 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：从附近最多5个有效单位身上抽取能量，每个单位提供25点伤害/治疗量。 
+等级2：从附近最多10个有效单位身上抽取能量，每个单位提供25点伤害/治疗量。 
+等级3：从附近最多15个有效单位身上抽取能量，每个单位提供25点伤害/治疗量。 
+等级4：从附近最多20个有效单位身上抽取能量，每个单位提供25点伤害/治疗量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目标位置召唤一座墓碑。墓碑会不断在其附近的每个敌方单位身边产生僵尸攻击他们。僵尸拥有嗜杀技能，使他们的攻击带有减速效果，并且若目标的生命值低于一定数值，僵尸的攻击和移动速度会提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">魔法消耗：120/130/140/150点 
+冷却时间：60秒 
+施法距离：600 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：放置一座200生命，持续15秒的墓碑，每3秒在600范围内敌方目标附近产生僵尸攻击他们，僵尸带有减速效果，降低目标7%移动速度，若目标生命值低于100或5%时，僵尸的攻击和移动速度会提升。 
+等级1：放置一座400生命，持续20秒的墓碑，每3秒在800范围内敌方目标附近产生僵尸攻击他们，僵尸带有减速效果，降低目标7%移动速度，若目标生命值低于200或10%时，僵尸的攻击和移动速度会提升。 
+等级1：放置一座600生命，持续25秒的墓碑，每3秒在1000范围内敌方目标附近产生僵尸攻击他们，僵尸带有减速效果，降低目标7%移动速度，若目标生命值低于300或15%时，僵尸的攻击和移动速度会提升。 
+等级1：放置一座800生命，持续30秒的墓碑，每3秒在1200范围内敌方目标附近产生僵尸攻击他们，僵尸带有减速效果，降低目标7%移动速度，若目标生命值低于400或20%时，僵尸的攻击和移动速度会提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血肉傀儡</t>
+  </si>
+  <si>
+    <t>魔法消耗：100点 
+冷却时间：75秒 
+持续时间：30秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽尸王变身为一具令人毛骨悚然的血肉傀儡，拥有瘟疫光环。光环对750范围内的所有敌方单位有减速效果，并加深他们受到的伤害；他们距离不朽尸王越近，受到的伤害就越多。当一个在瘟疫影响下的单位死亡时，不朽尸王会获得该单位生命最大值一定比例的生命恢复。 神杖升级：增强伤害加深效果，提高生命恢复比例。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：尸王变身为血肉傀儡，拥有瘟疫光环，降低750范围内的所有敌方单位9%速度，并使他们受到的伤害加深5%-20%，当一个被影响的单位/英雄死亡时，不朽尸王获得该单位最大生命值2%/6%的生命恢复。 
+等级2：尸王变身为血肉傀儡，拥有瘟疫光环，降低750范围内的所有敌方单位9%速度，并使他们受到的伤害加深10%-25%，当一个被影响的单位/英雄死亡时，不朽尸王获得该单位最大生命值2%/6%的生命恢复。 
+等级3：尸王变身为血肉傀儡，拥有瘟疫光环，降低750范围内的所有敌方单位9%速度，并使他们受到的伤害加深30%-50%，当一个被影响的单位/英雄死亡时，不朽尸王获得该单位最大生命值2%/6%的生命恢复。 
+神杖升级后伤害加深每个级别均增加5%，包括最大值和最小值，尸王生命恢复3%/10%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸王天赋树</t>
+  </si>
+  <si>
+    <t>10级：-30秒 复活时间或+90 金钱/分 
+15级：+30% 经验获取或+300 生命值 
+20级：+10 全属性或+20 移动速度 
+25级：+40 墓碑僵尸攻击力或+12 护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇发女妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,52,53,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇发女妖是被永世囚禁在大漩涡深处纳兹加塔海底监狱的阴险生物，在阿尔萨斯所率领的天灾军团和诺森德冰雪海岸的娜迦所掀起的战争期间无意被释放。她被亡灵感染，结果却得到了不朽的庇护。凭借着精湛的箭术和对魔法与生俱来的亲和力成名多年，她一挥手就能射出多支箭矢，使用秘术异蛇削弱敌人，甚至能用魔法形成屏障保护自己。如同传说中的美杜莎一样，任何面对她的敌人都不免被恐惧所占领渐渐麻痹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂箭</t>
+  </si>
+  <si>
+    <t>攻击距离：600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美杜沙运用魔法将她的箭矢分开，攻击5个敌方目标。额外的箭矢造成的伤害较小，不受攻击特效影响并不会造成暴击。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：每支箭造成基础攻击力50%的伤害。 
+等级2：每支箭造成基础攻击力60%的伤害。 
+等级3：每支箭造成基础攻击力70%的伤害。 
+等级4：每支箭造成基础攻击力80%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术异蛇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛇发女妖放出一条由能量构成的秘术异蛇，秘术异蛇在敌方单位之间游窜，造成伤害并偷取其魔法，每跳一次伤害加成25%。当游窜完最后一个目标后，秘术异蛇将其偷取的魔法值返还给蛇发女妖。 
+伤害类型：魔法伤害，计算魔法抗性的伤害，魔免单位完全格挡。 
+对被石化的单位造成纯粹伤害 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离：800 
+跳跃范围：475 
+施法间隔：11秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：消耗140点魔法，造成80点初始伤害，初始偷取20点魔法，跳跃3个目标，每跳跃一次提升25%伤害/魔法偷取。 
+等级2：消耗150点魔法，造成120点初始伤害，初始偷取35点魔法，跳跃4个目标，每跳跃一次提升25%伤害/魔法偷取。 
+等级3：消耗160点魔法，造成160点初始伤害，初始偷取50点魔法，跳跃5个目标，每跳跃一次提升25%伤害/魔法偷取。 
+等级4：消耗170点魔法，造成200点初始伤害，初始偷取65点魔法，跳跃6个目标，每跳跃一次提升25%伤害/魔法偷取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+  </si>
+  <si>
+    <t>美杜莎制造一个魔法护盾来吸收所受伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：每点魔法吸收1点伤害。 
+等级2：每点魔法吸收1.5点伤害。 
+等级3：每点魔法吸收2.5点伤害。 
+等级4：每点魔法吸收2.5点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化凝视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">任何在该技能施放后盯着蛇发女妖的敌方单位的攻击速度，移动速度和转身速率均将被减缓50%。如果一单位盯着蛇发女妖超过2秒，该单位会被完全石化，无法动弹。石化过程中该单位魔法抗性为100%，不过额外承受更多的物理伤害。幻象在被完全石化后会直接消失。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝视范围角度：85 
+凝视时间：6秒 
+石化时间：3秒 
+作用范围：1000 
+冷却时间：90秒 
+魔法消耗：200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：任何盯着蛇发女妖的地方单位的移动速度，攻击速度和转身速率均被降低50%，魔法抗性为100%，额外承受30%的物理伤害。 
+等级2：任何盯着蛇发女妖的地方单位的移动速度，攻击速度和转身速率均被降低50%，魔法抗性为100%，额外承受40%的物理伤害。 
+等级3：任何盯着蛇发女妖的地方单位的移动速度，攻击速度和转身速率均被降低50%，魔法抗性为100%，额外承受50%的物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎天赋</t>
+  </si>
+  <si>
+    <t>10级：+10 智力或+15 攻击力 
+15级：+20 攻击速度或10% 闪避 
+20级：+15 敏捷或+500 魔法 
+25级：+1秒 石化凝视眩晕时间或25% 吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑魔女</t>
+  </si>
+  <si>
+    <t>56,57,58,59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然所有森林女神都是赛那留斯的女儿，但Aiushtha却是赛那留斯的第一个女儿，也是他最疼爱的一个。因为这层关系，Aiushtha能从赛那留斯那里借取更多的力量。之所以这么说，一是因为她能控制那些害羞的小精灵去医治自己的盟军，二是因为她能够让一个敌人服从近卫军团的意愿。相对于肉搏来说，她更喜欢射击，所以她亲手打造了一把长矛，能对越远的敌人造成越大的伤害。她不可侵犯，那些企图杀死她的敌人将会发现她会非常轻松地从他们的面前跳开，真的非常轻松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可侵犯</t>
+  </si>
+  <si>
+    <r>
+      <t>持续时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3秒 </t>
+    </r>
+  </si>
+  <si>
+    <t>魅惑魔女让她的敌人神魂颠倒，降低他们的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：降低20点的攻击速度。 
+等级2：降低50点的攻击速度。 
+等级3：降低80点的攻击速度。 
+等级4：降低110点的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵一个目标生物，持续80秒。如果目标不能被控制，则降低移动速度，持续5.5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：700 
+魔法消耗：65 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：降低不能控制的目标20%的移动速度。冷却时间30秒。 
+等级2：降低不能控制的目标30%的移动速度。冷却时间24秒。 
+等级3：降低不能控制的目标40%的移动速度。冷却时间18秒。 
+等级4：降低不能控制的目标50%的移动速度。冷却时间12秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然之助</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+释放出小精灵来治疗魅惑魔女附近的友方单位。每个小精灵持续10秒，并回复10点/秒的生命。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用范围：275 
+冷却时间：45秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：释放出3个小精灵，魔法消耗125点。 
+等级2：释放出5个小精灵，魔法消耗140点。 
+等级3：释放出7个小精灵，魔法消耗155点。 
+等级4：释放出9个小精灵，魔法消耗170点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为每次攻击附魔，根据目标的距离造成额外伤害。目标越远，伤害越高。可神杖升级。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：造成相隔距离15%的额外伤害，魔法消耗55点。 
+等级2：造成相隔距离20%的额外伤害，魔法消耗60点。 
+等级3：造成相隔距离25%的额外伤害，魔法消耗65点。 
+神杖升级: 攻击距离增加190。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹿天赋</t>
+  </si>
+  <si>
+    <t>10级：+5 全属性或+15 移动速度 
+15级：+8秒 自然之助持续时间或+40 攻击力 
+20级：+12% 魔法抗性或-25秒 复活时间 
+25级：+10 自然之助精灵数量或+25 智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙王</t>
+  </si>
+  <si>
+    <t>61,62,63,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Crixalis曾经是Kalimdor的沙漠中的一只普通的蝎子。因为某种原因，他比其他弟兄发育得更快，成长得更大。由于他更容易被巫妖王的精神控制所影响，巫妖王将他召唤过来守护冰封王座。虽然比以前更大了，但是Crixalis仍然保持着他作为蝎子时的能力，比如钻入地下，然后在别的地方钻出，并将他经过的所有敌人刺到空中。他的尾刺含有一个剧毒的毒腺，它分泌的毒素能使他的敌人爆裂而死。斥候们发现，他甚至能引发强烈的地震，并杀死在他附近移动的所有敌人。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘地穿刺</t>
+  </si>
+  <si>
+    <r>
+      <t>沙王钻入地面挖掘隧道前进，穿出地面时伤害并眩晕上方的敌方单位。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">眩晕时间：2.17秒 
+冷却时间：11秒 
+魔法消耗：110/120/130/140点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1:造成110点的伤害，最大挖掘前进距离350。 
+等级2:造成160点的伤害，最大挖掘前进距离450。 
+等级3:造成220点的伤害，最大挖掘前进距离550。 
+等级4:造成280点的伤害，最大挖掘前进距离650。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙尘暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">持续施法 - 沙王制造一起可怕的沙尘暴，伤害敌方单位的同时隐匿沙王自身。沙尘暴结束后，沙王会短暂保持隐身状态。移动或使用物品都会打断施法。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用范围：275/325/375/525 
+冷却时间：40/30/20/10秒 
+魔法消耗：60/50/40/30点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 每1秒造成25点伤害，1.5秒的退出隐身时间。持续时间20秒。 
+等级2 - 每1秒造成50点伤害，1.5秒的退出隐身时间。持续时间40秒。 
+等级3 - 每1秒造成75点伤害，1.5秒的退出隐身时间。持续时间60秒。 
+等级4 - 每1秒造成100点伤害，1.5秒的退出隐身时间。持续时间80秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沙王的攻击会给敌方单位注入毒液，中毒单位死亡时发生剧烈爆炸，造成范围伤害。 腐尸毒是攻击特效，不与其它攻击特效叠加。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用范围：400 
+持续时间：8秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1：造成90点的伤害。 
+等级2：造成130点的伤害。 
+等级3：造成170点的伤害。 
+等级4：造成220点的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">持续施法 - 在2秒吟唱后，沙王向地中发送扰动，引起大地剧烈震动。所有范围内的敌人会受到伤害并被减速。每次后续震击都会提高伤害传播半径。 可用神杖升级。地震的攻击速度减缓现在和移动速度减缓相同（10%-&gt;30%） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法消耗：175/250/325点 
+冷却时间：140/120/100秒 
+减速：30% 
+减速持续时间：3秒 
+神杖升级地震波数：8/10/12 
+神杖升级冷却时间：120/100/80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">等级1：释放出6（8）道110伤害的地震波。 
+等级2：释放出8（10）道110伤害的地震波。 
+等级3：释放出10（12）道110伤害的地震波。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙王天赋</t>
+  </si>
+  <si>
+    <t>10级：+200 魔法或+5 护甲 
+15级：+12% 魔法抗性或+15 移动速度 
+20级：+350 生命值或+120 金钱/分 
+25级：+4 地震震波数量或+50 生命恢复速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kardel是近卫军团的狙击专家。由于他超远的射程，总能在很安全的位置给敌人造成十分巨大的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66,67,68,69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴霰弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用范围：400 
+施法距离：1800 
+施法间隔：15秒 
+施法消耗：120 
+持续时间：9秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 造成12点/秒的伤害，降低15%的移动速度。 
+等级2 - 造成24点/秒的伤害，降低20%的移动速度。 
+等级3 - 造成36点/秒的伤害，降低25%的移动速度。 
+等级4 - 造成48点/秒的伤害，降低30%的移动速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">射出一发带有爆炸弹片的榴霰弹，在目标区域降下弹雨。区域内的敌军受到伤害并被减速。对建筑造成30%的伤害。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆头</t>
+  </si>
+  <si>
+    <t>等级1 - 40%的几率爆头，造成15点额外的伤害，晕眩0.25秒。 
+等级2 - 40%的几率爆头，造成40点额外的伤害，晕眩0.25秒。 
+等级3 - 40%的几率爆头，造成65点额外的伤害，晕眩0.25秒。 
+等级4 - 40%的几率爆头，造成90点额外的伤害，晕眩0.25秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">狙击手提高他的精确度，有一定几率造成额外伤害和造成0.5秒的100%移速和攻速减少。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等级 1 - 被动地增加狙击手的步枪80的射程。 
+等级 2 - 被动地增加狙击手的步枪160的射程。 
+等级 3 - 被动地增加狙击手的步枪240的射程。 
+等级 4 - 被动地增加狙击手的步枪320的射程。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">被动地增加狙击手的步枪的射程。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型：魔法 
+魔法消耗：175 / 275 / 375 
+冷却时间：20 / 15 / 10 
+射程：2000 / 2500 / 3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 造成355点的伤害。施法时间：1.7秒。 
+等级 2 - 造成505点的伤害。施法时间：1.65秒。 
+等级 3 - 造成655点的伤害。施法时间：1.5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击手锁定一个目标敌方单位，短暂瞄准后，从远距离射出一发毁灭性的子弹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击手天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级：+4 魔法恢复速率或+15 攻击速度 
+15级：+20 榴霰弹每秒伤害或+200 生命值 
+20级：+8 护甲或25% 冷却时间减少 
+25级：+100 攻击距离或+4 榴霰弹能量点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫妖</t>
+  </si>
+  <si>
+    <t>身为被巫妖王的强力魔法复活过来的精英级守卫，Kel'Thuzad能够如臂使指地操纵诺森兰的严寒。他生前操控寒冰气流的天赋并没有因为他的死亡而消失。由于对寒冰魔法的极度精通，使得他能够将寒气聚集在一个球体上，并让它在敌军之中四处跳跃造成极大的杀伤力，令那些敌人体验到他复活时所遭受的巨大痛苦。他可以为了恢复魔力而不惜牺牲自己的盟友，是个不折不扣的冷血杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,72,73,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜爆发</t>
+  </si>
+  <si>
+    <t>施法距离：600 
+冷却时间：8秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 造成75点的伤害，并对目标造成额外的50点的伤害。魔法消耗125点。 
+等级2 - 造成100点的伤害，并对目标造成额外的100点的伤害。魔法消耗150点。 
+等级3 - 造成125点的伤害，并对目标造成额外的150点的伤害。魔法消耗170点。 
+等级4 - 造成150点的伤害，并对目标造成额外的200点的伤害。魔法消耗190点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">破坏性的寒霜在目标敌方单位身上爆发，造成范围伤害并降低范围内敌人的移动和攻击速度4秒。主要目标所受伤害最高。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜冻护甲</t>
+  </si>
+  <si>
+    <t>等级 1 - 增加3点的护甲 
+等级 2 - 增加5点的护甲 
+等级 3 - 增加7点的护甲 
+等级 4 - 增加9点的护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为一个友方单位制造一层寒冰护甲，增加护甲值并在2秒内降低近身攻击他的敌方单位20%攻击速度和30%移动速度，远程英雄的攻击也能生效（效果减半） 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：800 
+持续时间：40秒 
+冷却时间：5秒 
+魔法消耗：50点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶祭祀</t>
+  </si>
+  <si>
+    <t>等级1 - 将25%的生命值转化为自己的魔法值。 
+等级2 - 将40%的生命值转化为自己的魔法值。 
+等级3 - 将55%的生命值转化为自己的魔法值。 
+等级4 - 将70%的生命值转化为自己的魔法值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：800 
+魔法消耗：25 
+冷却时间：44/ 36 / 28 / 20 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牺牲一个友方小兵，将他的生命值转化成巫妖的魔法值。 
+牺牲现在不再让敌方无法获取经验，可将你自己的小兵转化为你方经验值（范围以及经验值都和其他小兵一样）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连环霜冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法距离：750（850） 
+冷却时间：145 / 115 / 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">等级1 - 每次跳跃造成280点（370点）的伤害。魔法消耗200点。 
+等级2 - 每次跳跃造成370点（460点）的伤害。魔法消耗325点。 
+等级3 - 每次跳跃造成460点（550点）的伤害。魔法消耗500点。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">释放一个在敌人间弹跳10次的霜冻法球，减速并伤害敌人。第一个目标会受到短暂眩晕。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫妖天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级：+125 生命值或+15 移动速度 
+15级：+100 施法距离或+5 全属性 
+20级：+150 攻击力或+120 金钱/分 
+25级：+25 霜冻护甲对建筑数值或攻击附带30%攻速和移速降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
+    <t>76,77,78,79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在很久以前的人兽大战中，许多半兽人战士受到恶魔之力的影响而腐化沦落为黑暗势力的工具。其中就有血斧部落的首领，Mogul Kahn。他原被人类圣骑士所杀，但是在Mannaroth指挥半兽人向Archimonde进攻的时候，人们却不可思议地看到他出现在天灾军团的阵营中。他被恶魔复活，运用他迅捷的反应和强大的攻击力猎杀近卫军团的战士，他残忍地将对手砍为数块，他甚至能使敌人变的和他一样的对杀戮充满着邪恶渴望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士的怒吼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作用范围：300 
+冷却时间：16/14/12/10秒 
+魔法消耗：80/90/100/110点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 提升40点护甲，持续2.0秒。 
+等级 2 - 提升40点护甲，持续2.4秒。 
+等级 3 - 提升40点护甲，持续2.8秒。 
+等级 4 - 提升40点护甲，持续3.2秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王嘲讽附近的敌方单位，强迫他们攻击自己，同时获得额外护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷却时间：20/15/10/5秒 
+魔法消耗：75点 
+减速：12% 
+速度提升：10% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 受到16点/秒的伤害，持续10秒。 
+等级 2 - 受到24点/秒的伤害，持续10秒。 
+等级 3 - 受到32点/秒的伤害，持续10秒。 
+等级 4 - 受到40点/秒的伤害，持续10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">激怒一个敌方单位，使他受到减速和持续伤害，直到他杀死一个单位或者持续时间结束为止。斧王从每个受战斗饥渴影响的敌人身上获得移动速度加成。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击螺旋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作用范围：275 
+反击率：20% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 反击螺旋造成100点的伤害，反击螺旋有0.45秒的最低间隔时间。 
+等级1 - 反击螺旋造成135点的伤害，反击螺旋有0.40秒的最低间隔时间。 
+等级3 - 反击螺旋造成170点的伤害，反击螺旋有0.35秒的最低间隔时间。 
+等级4 - 反击螺旋造成205点的伤害，反击螺旋有0.30秒的最低间隔时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">受攻击时，斧王做出螺旋反击，对附近所有敌方单位造成伤害。无视魔法免疫。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰之刃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：150 
+速度加成：40% 
+攻击速度加成：40% 
+加速持续时间：6秒 
+速度加成影响范围：900 
+神杖升级冷却时间：6秒 
+神杖升级持续时间：10秒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 造成150点的伤害，瞬间斩杀生命值少于250的敌人,魔法消耗60点，施法间隔75秒。 
+等级2 - 造成250点的伤害，瞬间斩杀生命值少于350的敌人,魔法消耗120点，施法间隔65秒。 
+等级3 - 造成300点的伤害，瞬间斩杀生命值少于450的敌人,魔法消耗180点，施法间隔55秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">斧王寻找弱点攻击，造成一定伤害，但会秒杀低血量的敌方单位。当一个敌方单位被此技能秒杀时，斧王和附近友军单位获得移动速度加成，无视魔法免疫。可用神杖升级。如果使用淘汰之刃成功斩杀一个英雄，该技能将不会进入冷却 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王天赋</t>
+  </si>
+  <si>
+    <t>10级：+6 力量或+3 魔法恢复速率 
+15级：+75 攻击力或+250 生命值 
+20级：+25 生命恢复速率或+30 移动速度 
+25级：+100 战斗饥渴每秒伤害或+15 护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌法师</t>
+  </si>
+  <si>
+    <t>81,82,83,84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种与生俱来的天赋，Magina甚至可以看见魔法能量以最纯粹的形式出现并控制它。天灾军团对世界之树的污染破坏了这个世界的魔法结构。而Magina将不惜牺牲自己来保持大自然的平衡。 一种与生俱来的天赋，Magina甚至可以看见魔法能量以最纯粹的形式出现并控制它。天灾军团对世界之树的污染破坏了这个世界的魔法结构。而Magina将不惜牺牲自己来保持大自然的平衡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力损毁</t>
+  </si>
+  <si>
+    <t>等级 1 - 每次攻击消去目标28点的魔法。 
+等级 2 - 每次攻击消去目标40点的魔法。 
+等级 3 - 每次攻击消去目标52点的魔法。 
+等级 4 - 每次攻击消去目标64点的魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">每次攻击损毁目标一定量的魔法值，并额外造成相当于损毁魔法值60%%的伤害。法力损毁是个独特攻击特效，不与其它独特攻击特效叠加。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+  </si>
+  <si>
+    <t>魔法消耗：60 
+冷却时间：12 / 9 / 7 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 最小距离200，最大距离1000。 
+等级2 - 最小距离200，最大距离1075。 
+等级3 - 最小距离200，最大距离1150。 
+等级4 - 最小距离200，最大距离1150。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">让敌法师自由出入战场的短距离传送。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术护盾</t>
+  </si>
+  <si>
+    <t>等级1 - 提升26%的魔法抗性。 
+等级2 - 提升34%的魔法抗性。 
+等级3 - 提升42%的魔法抗性。 
+等级4 - 提升50%的魔法抗性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">提高敌法师的魔法抗性。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力虚空</t>
+  </si>
+  <si>
+    <t>施法距离：600 
+作用范围：300 
+冷却时间：70秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 伤害为目标所缺失的魔法值（即 最大魔法值-当前魔法值）*0.6，同时造成0.1秒的晕眩。魔法消耗125点。 
+等级2 - 伤害为目标所缺失的魔法值（即 最大魔法值-当前魔法值）*0.85，同时造成0.2秒的晕眩。魔法消耗200点。 
+等级3 - 伤害为目标所缺失的魔法值（即 最大魔法值-当前魔法值）*1.1，同时造成0.3秒的晕眩。魔法消耗275点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">根据目标损失的魔法值，对目标和其周围的敌人造成伤害。主要目标受到短暂眩晕。无视魔法免疫。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌法师天赋</t>
+  </si>
+  <si>
+    <t>10级：+6 力量或+20 攻击力 
+15级：+20 攻击速度或+250 生命值 
+20级：15% 闪避或+10 全属性 
+25级：-2秒 闪烁冷却时间或+25 敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>86,87,88,89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为被Mannoroth长期控制业已衰落的黑日部落名义上的首领，Lannik加入天灾军团以回报巫妖王，旧日盟友暗月部落的首领的恩情。凭借着对召唤恶魔与毁灭术精通，他尽情享受着折磨那些光之子民的快乐，将他们的生命之火如同烛火般捻灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命连接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：800 
+持续时间：25秒 
+冷却时间：25秒 
+魔法消耗：140点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 3个单位，将25%所有伤害加在其他被连接单位身上。 
+等级 2 - 4个单位，将25%所有伤害加在其他被连接单位身上。 
+等级 3 - 5个单位，将25%所有伤害加在其他被连接单位身上。 
+等级 4 - 6个单位，将25%所有伤害加在其他被连接单位身上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">将多个敌方单位连接在一起，其中任意一个受到的伤害，其他所有单位都一定程度地感同身受。致命连接现在会连接与初始目标最近的几个目标，而不是随机的连接范围内目标。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：1200 
+持续时间：9秒 
+治疗持续时间：12秒 
+冷却时间：20秒 
+魔法消耗：90/110/130/150点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 治疗友方15点/秒的生命或对敌方造成15点/秒的伤害。 
+等级 2 - 治疗友方25点/秒的生命或对敌方造成25点/秒的伤害。 
+等级 3 - 治疗友方35点/秒的生命或对敌方造成35点/秒的伤害。 
+等级 4 - 治疗友方45点/秒的生命或对敌方造成45点/秒的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">戴蒙低声说出一个咒语，持续治疗一个友方单位或伤害一个敌方单位 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧变</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：700 
+作用范围：650 
+冷却时间：50秒 
+魔法消耗：100/110/120/130点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">引发强烈的气流降低敌方单位的移动速度，气流会随着咏唱时间的增加而变得更加强烈。最多咏唱10秒，降低84%的移动速度。 
+在魔法结束或目标离开生效区域后，敌人仍会被减速3秒。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 降低7%/秒的移动速度。 
+等级 2 - 降低14%/秒的移动速度。 
+等级 3 - 降低21%/秒的移动速度。 
+等级 4 - 降低28%/秒的移动速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱之祭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：1200 
+作用范围：600 
+持续时间：60秒 
+冷却时间：165秒 
+魔法消耗：200/300/400点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从深渊召唤一个傀儡，对目前区域的敌方单位和建筑造成晕眩1秒。傀儡持续60秒，拥有抗性皮肤、永久的献祭和烈焰之拳。地狱火的烈焰之拳触发几率为40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 1 - 召唤一个具有一般攻击力的地域火，生命值900，攻击力75，护甲6。 
+等级 2 - 召唤一个具有强大攻击力的地域火，生命值1200，攻击力100，护甲9。
+等级 3 - 召唤一个具有惊人攻击力的地域火，生命值1500，攻击力125，护甲12。 
+神杖升级傀儡数量：2 
+神杖升级生命值/攻击力降低：25% 
+神杖升级奖励减少：50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士天赋树</t>
+  </si>
+  <si>
+    <t>10级：+6 全属性或+15% 经验获取 
+15级：+125 施法距离或+20 移动速度 
+20级：+350 生命值或-30秒 复活时间 
+25级：地狱火拥有技能免疫或+15 地狱火护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山岭巨人</t>
+  </si>
+  <si>
+    <t>91,92,93,94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自Ashenra嶙峋的山脉孕育而生，Tiny可以通过投掷大量的泥石造成山崩，也能够将任何东西抛向空中，这都显示了他不起眼的身形下其实隐藏着巨人般的力量。他岩石般坚硬的外表，让攻击他的敌人反受其害。随着时间的推移，Tiny身体中心的磁石能够吸引四周的石头土块，从而让他逐步成长，成为名副其实的山岭巨人。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山崩</t>
+  </si>
+  <si>
+    <t>施法距离：600 
+魔法消耗:120点。 
+技能冷却:17秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 造成100点的伤害。 
+等级2 - 造成180点的伤害。 
+等级3 - 造成260点的伤害。 
+等级4 - 造成300点的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用岩石轰炸一个区域，造成伤害并晕眩2秒。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+  </si>
+  <si>
+    <t>山岭巨人随机抓起275范围内的一个单位，将他投向一个目标。落地以后对附近的敌方单位造成伤害，被投掷的单位本身受到20%（35%/50%/65%，随长大的等级而上升）的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击 粉碎（物理并无视防御）伤害 
+魔法消耗：120 
+技能冷却：9秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 投掷距离1300，造成75点的伤害。 
+等级2 - 投掷距离1300，造成150点的伤害。 
+等级3 - 投掷距离1300，造成225点的伤害。 
+等级4 - 投掷距离1300，造成300点的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崎岖外表</t>
+  </si>
+  <si>
+    <t>等级1 - 300范围内对山岭巨人进行攻击的单位有10%的几率受到25点的伤害，并晕眩1.2秒，并额外增加2的护甲。 
+等级2 - 300范围内对山岭巨人进行攻击的单位有15%的几率受到35点的伤害，并晕眩1.3秒，并额外增加3的护甲。 
+等级3 - 300范围内对山岭巨人进行攻击的单位有20%的几率受到45点的伤害，并晕眩1.4秒，并额外增加4的护甲。 
+等级4 - 300范围内对山岭巨人进行攻击的单位有25%的几率受到55点的伤害，并晕眩1.5秒，并额外增加5的护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山岭巨人的身体由坚硬的花岗岩组成，300范围内任何对他进行攻击的单位都有可能受到伤害，并晕眩1.2秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大！</t>
+  </si>
+  <si>
+    <t>大幅增加山岭巨人的体型和攻击力，攻击速度却因此降低。大幅增加山岭巨人的体型和攻击力，攻击速度却因此降低。 
+被动提升投掷技能的伤害和20/40/60的移动速度。 
+神杖升级增加对被投掷目标伤害，山岭巨人抓起一棵树作为武器，使其攻击射程增加到235，攻击带有400半径范围的溅射效果，对建筑物造成额外75%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 增加50点的攻击力，降低20%的攻击速度。 
+等级2 - 增加100点的攻击力，降低35%的攻击速度。 
+等级3 - 增加150点的攻击力，降低50%的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小天赋</t>
+  </si>
+  <si>
+    <t>10级：+6 力量或+10 智力 
+15级：+45 攻击力或+15 移动速度 
+20级：+25 攻击速度或+14 魔法恢复速率 
+25级：20% 冷却时间减少或+200 山崩伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔</t>
+  </si>
+  <si>
+    <t>96,97,98,99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为恶魔和兽人的混血儿，Strygwyr被所有凡间的生物所排斥。Strygwyr用他所杀的生物的血来沐浴，并能以此来治疗他的伤口-虽然这证明了他的不幸。那些冒险的傻瓜们必须得知道的是，Strygwyr可以在几里外感受到他们血液的流动，并随后获取他们无助的视野，当Strygwyr的嗜血狂怒将敌人撕裂时，他的猎物面对一道无解的选择题：尝试着与这位快速的恶魔竞速时流血而亡，或者呆在原地被他狂暴的撕成碎片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之狂暴</t>
+  </si>
+  <si>
+    <r>
+      <t>施法消耗:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0点魔法 </t>
+    </r>
+  </si>
+  <si>
+    <t>等级1: 伤害加深25%，持续时间9秒。 施法间隔:12秒 
+等级2: 伤害加深30%，持续时间10秒。 施法间隔:10秒 
+等级3: 伤害加深35%，持续时间11秒。 施法间隔:8秒 
+等级4: 伤害加深40%，持续时间12秒。 施法间隔:6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">血之狂暴状态下的英雄杀死一个单位后将回复阵亡单位最大生命值的25%；血之狂暴状态下的英雄被击杀则击杀者将回复阵亡英雄最大生命值的25% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之祭祀</t>
+  </si>
+  <si>
+    <t>魔法消耗：100</t>
+  </si>
+  <si>
+    <t>等级1: 纯粹伤害120，沉默持续时间3秒。 施法间隔:30秒 
+等级2: 纯粹伤害160，沉默持续时间4秒。 施法间隔:25秒 
+等级3: 纯粹伤害200，沉默持续时间5秒。 施法间隔:20秒 
+等级4: 纯粹伤害240，沉默持续时间6秒。 施法间隔:15秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">选择区域进行施放。地面上会出现敌方可见的效果。3秒后，区域范围内敌人受到伤害，并被沉默。作用范围：600，施法距离：1500 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血渴望</t>
+  </si>
+  <si>
+    <t>等级1:感知范围6000，触发渴望英雄血量20%，移动速度提升10，增加3点额外护甲。 
+等级2:感知范围6000，触发渴望英雄血量30%，移动速度提升20，增加4点额外护甲。 
+等级3:感知范围6000，触发渴望英雄血量40%，移动速度提升30，增加5点额外护甲。 
+等级4:感知范围6000，触发渴望英雄血量50%，移动速度提升40，增加6点额外护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔能够感知到生命值低于一定数值的英雄，获得其视野并提升血魔的移动速度。血魔获得生命值低于30%的敌方英雄的真实视域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割裂</t>
+  </si>
+  <si>
+    <t>施法距离：1000</t>
+  </si>
+  <si>
+    <t>等级1:造成的伤害为相当于移动距离的20%的额外伤害，持续12秒。施法间隔:60秒 施法消耗:150点魔法 
+等级2:造成的伤害为相当于移动距离的40%的额外伤害，持续12秒。施法间隔:60秒 施法消耗:200点魔法 
+等级3:造成伤害为相当于移动距离的60%的额外伤害，持续12秒。施法间隔:60秒 施法消耗:250点魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">让一个敌方单位皮开肉绽，造成大量伤害。若受到割裂的单位移动，将按移动距离的一定百分比受到伤害。割裂不再造成初始伤害 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔天赋</t>
+  </si>
+  <si>
+    <t>10级：+5 护甲或+25 攻击力 
+15级：+30 攻击速度或+250 生命值 
+20级：-30秒 复活时间或+10 全属性 
+25级：-7秒 血之祭祀冷却时间或30% 吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔巫师</t>
+  </si>
+  <si>
+    <t>通过掌控来自阿克蒙德的可怕的力量，Lion无疑是一个值得敬畏的对手。他曾经是Dalaran的一个魔法师，在向未知的魔法领域探索的过程中受到冰封王座强大意识的腐化而投向邪恶。他精通各类阻碍性魔法，善于使用各种诅咒，他对黑暗魔法的掌握已经到达极致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂地尖刺</t>
+  </si>
+  <si>
+    <t>施法距离：500 
+穿刺长度：825 
+冷却时间：12秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 造成80点的伤害，并将敌方地面单位抛向空中，晕眩1.02秒。魔法消耗100点。 
+等级2 - 造成140点的伤害，并将敌方地面单位抛向空中，晕眩1.52秒。魔法消耗120点。 
+等级3 - 造成210点的伤害，并将敌方地面单位抛向空中，晕眩2.02秒。魔法消耗145点。 
+等级4 - 造成260点的伤害，并将敌方地面单位抛向空中，晕眩2.52秒。魔法消耗170点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沿直线从地中穿出岩石尖刺。将敌方单位抛向空中，落地时受到伤害并被眩晕 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：500 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">等级1 - 持续2.5秒。魔法消耗110点。冷却时间：30。 
+等级2 - 持续3秒。魔法消耗140点。冷却时间：25。 
+等级3 - 持续3.5秒。魔法消耗170点。冷却时间：20。 
+等级4 - 持续4秒。魔法消耗200点。冷却时间：15。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">将敌方单位变成小动物，他将不能攻击、使用技能或物品，只拥有部分被动技能以及缓慢的移动速度。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法汲取</t>
+  </si>
+  <si>
+    <t>施法距离：850 
+法力汲取的最大距离：1200 
+冷却时间：20 / 15 / 10 /5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1 - 汲取敌方单位20点/秒的魔法。持续时间5秒。魔法消耗10点。 
+等级2 - 汲取敌方单位40点/秒的魔法。持续时间5秒。魔法消耗10点。 
+等级3 - 汲取敌方单位60点/秒的魔法。持续时间5秒。魔法消耗10点。 
+等级4 - 汲取敌方单位120点/秒的魔法。持续时间5秒。魔法消耗10点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从一个敌方单位吸取魔法能量，每秒回复自己一定的魔法值。需要持续施法。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡一指</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施法距离：900 
+冷却时间：160 / 100 / 40(100 / 60 / 20) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">等级1 - 造成600(725)点的伤害。魔法消耗200点。 
+等级2 - 造成750(875)点的伤害。魔法消耗425点。 
+等级3 - 造成850(1025)点的伤害。魔法消耗625点。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">撕裂一个敌方单位，将他折磨的死去活来，并造成巨大伤害。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔巫师天赋树</t>
+  </si>
+  <si>
+    <t>10级：+175 生命值或+45 攻击力 
+15级：+90 金钱/分或-30秒 复活时间 
+20级：20% 魔法抗性或+8% 技能伤害增强 
+25级：+3 法力汲取多个目标或+20 全属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +2611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1418,6 +2635,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1696,20 +2917,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="130" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="130" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1753,13 +2983,16 @@
         <v>6</v>
       </c>
       <c r="O1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1802,14 +3035,14 @@
       <c r="N2">
         <v>587</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1852,14 +3085,14 @@
       <c r="N3">
         <v>454</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1902,14 +3135,14 @@
       <c r="N4">
         <v>454</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1952,14 +3185,14 @@
       <c r="N5">
         <v>568</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2002,14 +3235,14 @@
       <c r="N6">
         <v>492</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2052,14 +3285,14 @@
       <c r="N7">
         <v>511</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2102,14 +3335,14 @@
       <c r="N8">
         <v>568</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2152,14 +3385,14 @@
       <c r="N9">
         <v>435</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2202,87 +3435,830 @@
       <c r="N10">
         <v>454</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2.1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>2.5</v>
+      </c>
+      <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>57</v>
+      </c>
+      <c r="M11">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>568</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>313</v>
+      </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1.65</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>1.85</v>
+      </c>
+      <c r="K12">
+        <v>1.8</v>
+      </c>
+      <c r="L12">
+        <v>44</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>416</v>
+      </c>
+      <c r="O12">
+        <v>247</v>
+      </c>
+      <c r="P12">
+        <v>600</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="C13" t="s">
         <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>1.8</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>2.8</v>
+      </c>
+      <c r="K13">
+        <v>0.66</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>57</v>
+      </c>
+      <c r="N13">
+        <v>454</v>
+      </c>
+      <c r="O13">
+        <v>208</v>
+      </c>
+      <c r="P13">
+        <v>550</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>2.6</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>2.1</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <v>2.66</v>
+      </c>
+      <c r="L14">
+        <v>43</v>
+      </c>
+      <c r="M14">
+        <v>59</v>
+      </c>
+      <c r="N14">
+        <v>492</v>
+      </c>
+      <c r="O14">
+        <v>208</v>
+      </c>
+      <c r="P14">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>1.7</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>2.9</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>2.6</v>
+      </c>
+      <c r="K15">
+        <v>1.94</v>
+      </c>
+      <c r="L15">
+        <v>36</v>
+      </c>
+      <c r="M15">
+        <v>42</v>
+      </c>
+      <c r="N15">
+        <v>454</v>
+      </c>
+      <c r="O15">
+        <v>195</v>
+      </c>
+      <c r="P15">
+        <v>550</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>1.55</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>3.25</v>
+      </c>
+      <c r="K16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>51</v>
+      </c>
+      <c r="N16">
+        <v>492</v>
+      </c>
+      <c r="O16">
+        <v>234</v>
+      </c>
+      <c r="P16">
+        <v>550</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>1.6</v>
+      </c>
+      <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>49</v>
+      </c>
+      <c r="M17">
+        <v>53</v>
+      </c>
+      <c r="N17">
+        <v>625</v>
+      </c>
+      <c r="O17">
+        <v>234</v>
+      </c>
+      <c r="P17">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1.2</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>2.8</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <v>2.08</v>
+      </c>
+      <c r="L18">
+        <v>49</v>
+      </c>
+      <c r="M18">
+        <v>53</v>
+      </c>
+      <c r="N18">
+        <v>530</v>
+      </c>
+      <c r="O18">
+        <v>195</v>
+      </c>
+      <c r="P18">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>2.7</v>
+      </c>
+      <c r="K19">
+        <v>2.4</v>
+      </c>
+      <c r="L19">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>56</v>
+      </c>
+      <c r="N19">
+        <v>292</v>
+      </c>
+      <c r="O19">
+        <v>312</v>
+      </c>
+      <c r="P19">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>1.6</v>
+      </c>
+      <c r="K20">
+        <v>0.26</v>
+      </c>
+      <c r="L20">
+        <v>61</v>
+      </c>
+      <c r="M20">
+        <v>67</v>
+      </c>
+      <c r="N20">
+        <v>606</v>
+      </c>
+      <c r="O20">
+        <v>182</v>
+      </c>
+      <c r="P20">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>1.7</v>
+      </c>
+      <c r="K21">
+        <v>3.36</v>
+      </c>
+      <c r="L21">
+        <v>53</v>
+      </c>
+      <c r="M21">
+        <v>59</v>
+      </c>
+      <c r="N21">
+        <v>587</v>
+      </c>
+      <c r="O21">
+        <v>234</v>
+      </c>
+      <c r="P21">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>1.7</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>1.5</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>56</v>
+      </c>
+      <c r="N22">
+        <v>454</v>
+      </c>
+      <c r="O22">
+        <v>286</v>
+      </c>
+      <c r="P22">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>101102103104</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
@@ -2294,19 +4270,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showRuler="0" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="72.1640625" customWidth="1"/>
     <col min="8" max="8" width="67.33203125" style="1" customWidth="1"/>
   </cols>
@@ -3185,28 +5161,907 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="C49">
         <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3217,10 +6072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,52 +6231,174 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="C16" t="s">
         <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
